--- a/dragon-verse/Excels/DialogueContentNode_对话内容节点表.xlsx
+++ b/dragon-verse/Excels/DialogueContentNode_对话内容节点表.xlsx
@@ -58,7 +58,7 @@
     <t>内容</t>
   </si>
   <si>
-    <t xml:space="preserve">NEVEN_CHANGE 不要更改此列</t>
+    <t xml:space="preserve">VIEW_ONLY 不要更改或使用此列</t>
   </si>
   <si>
     <t xml:space="preserve">来源角色 ID</t>
@@ -585,7 +585,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="4">
+        <row r="5">
           <cell r="D1" t="str">
             <v>string</v>
           </cell>
